--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 4 (46, 56, 4, 38, 5)/Ableson 8 (9, 23, 10, 4, 42)/NCDE_32nodes_Uniform0.05Virtual_Nelson(46, 56, 4, 38, 5)_Ableson(9, 23, 10, 4, 42)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 4 (46, 56, 4, 38, 5)/Ableson 8 (9, 23, 10, 4, 42)/NCDE_32nodes_Uniform0.05Virtual_Nelson(46, 56, 4, 38, 5)_Ableson(9, 23, 10, 4, 42)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9997962833819307</v>
+        <v>0.9997988619995107</v>
       </c>
       <c r="E2">
-        <v>0.9997962833819307</v>
+        <v>0.9997988619995107</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.001700711607150767</v>
+        <v>0.001699055521935858</v>
       </c>
       <c r="E3">
-        <v>0.001700711607150767</v>
+        <v>0.001699055521935858</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2.921763162994138E-07</v>
+        <v>2.978673364050297E-07</v>
       </c>
       <c r="E4">
-        <v>2.921763162994138E-07</v>
+        <v>2.978673364050297E-07</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.05975760685091614</v>
+        <v>0.0597451618803951</v>
       </c>
       <c r="E5">
-        <v>0.05975760685091614</v>
+        <v>0.0597451618803951</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9527490684240126</v>
+        <v>0.9528007225857484</v>
       </c>
       <c r="E6">
-        <v>0.9527490684240126</v>
+        <v>0.9528007225857484</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9847300178640215</v>
+        <v>0.9999099414284685</v>
       </c>
       <c r="E7">
-        <v>0.01526998213597852</v>
+        <v>9.005857153154828E-05</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -537,13 +537,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9841348568075772</v>
+        <v>0.2450067696021565</v>
       </c>
       <c r="E8">
-        <v>0.01586514319242283</v>
+        <v>0.7549932303978435</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9845052686960341</v>
+        <v>0.9171529180856638</v>
       </c>
       <c r="E9">
-        <v>0.01549473130396595</v>
+        <v>0.08284708191433621</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9836639162645071</v>
+        <v>0.9977735552026767</v>
       </c>
       <c r="E10">
-        <v>0.01633608373549289</v>
+        <v>0.002226444797323257</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9850421102941689</v>
+        <v>0.8345891892223154</v>
       </c>
       <c r="E11">
-        <v>0.01495788970583112</v>
+        <v>0.1654108107776846</v>
       </c>
       <c r="F11">
-        <v>1.169292211532593</v>
+        <v>1.330428719520569</v>
       </c>
       <c r="G11">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.9999917280104573</v>
+        <v>0.999991365074016</v>
       </c>
       <c r="E12">
-        <v>0.9999917280104573</v>
+        <v>0.999991365074016</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.001103543760195916</v>
+        <v>0.001113011698155832</v>
       </c>
       <c r="E13">
-        <v>0.001103543760195916</v>
+        <v>0.001113011698155832</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1.468236811546974E-10</v>
+        <v>1.368304174964428E-10</v>
       </c>
       <c r="E14">
-        <v>1.468236811546974E-10</v>
+        <v>1.368304174964428E-10</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.01230195801045572</v>
+        <v>0.01232078367538299</v>
       </c>
       <c r="E15">
-        <v>0.01230195801045572</v>
+        <v>0.01232078367538299</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.9961564102320238</v>
+        <v>0.9961320369616914</v>
       </c>
       <c r="E16">
-        <v>0.9961564102320238</v>
+        <v>0.9961320369616914</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9994582394141845</v>
+        <v>0.9999963210302615</v>
       </c>
       <c r="E17">
-        <v>0.0005417605858154539</v>
+        <v>3.678969738518667E-06</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -689,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.9993781606174784</v>
+        <v>0.8639090518685172</v>
       </c>
       <c r="E18">
-        <v>0.0006218393825215829</v>
+        <v>0.1360909481314828</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -703,10 +703,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.999380943704858</v>
+        <v>0.9906433753326737</v>
       </c>
       <c r="E19">
-        <v>0.0006190562951420286</v>
+        <v>0.009356624667326341</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -717,10 +717,10 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.9993247343967639</v>
+        <v>0.9985805355512111</v>
       </c>
       <c r="E20">
-        <v>0.0006752656032360527</v>
+        <v>0.001419464448788932</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,13 +731,13 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.999446711144292</v>
+        <v>0.965986732699921</v>
       </c>
       <c r="E21">
-        <v>0.0005532888557080451</v>
+        <v>0.03401326730007903</v>
       </c>
       <c r="F21">
-        <v>1.728047966957092</v>
+        <v>1.741995215415955</v>
       </c>
       <c r="G21">
         <v>0.8</v>
